--- a/biology/Botanique/Hordeum_bulbosum/Hordeum_bulbosum.xlsx
+++ b/biology/Botanique/Hordeum_bulbosum/Hordeum_bulbosum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hordeum bulbosum est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, originaire d'Eurasie et d'Afrique du Nord.
-Cette espèce, susceptible de s'hybrider, bien qu'avec difficulté, avec Hordeum vulgare, constitue le pool génique secondaire de l'orge commune. Hordeum bulbosum est une source intéressante de gènes de résistance à divers agents pathogènes, notamment fongiques et viraux, pour l'amélioration des cultivars d'orge cultivée[2].
-Ce sont des plantes herbacées vivaces, cespiteuses, aux tiges de 50 à 100 cm de long, renflées en bulbes à la base, et à l'inflorescence composée de racèmes[3].  
+Cette espèce, susceptible de s'hybrider, bien qu'avec difficulté, avec Hordeum vulgare, constitue le pool génique secondaire de l'orge commune. Hordeum bulbosum est une source intéressante de gènes de résistance à divers agents pathogènes, notamment fongiques et viraux, pour l'amélioration des cultivars d'orge cultivée.
+Ce sont des plantes herbacées vivaces, cespiteuses, aux tiges de 50 à 100 cm de long, renflées en bulbes à la base, et à l'inflorescence composée de racèmes.  
 </t>
         </is>
       </c>
@@ -515,7 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Critesion bulbosum (L.) Á.Löve
 Hordeum brevicomum C.Presl, nom. nud.
 Hordeum bulbosum var. brevispicatum Post
@@ -529,8 +547,43 @@
 Hordeum strictum Desf.
 Zeocriton nodosum (L.) P.Beauv.
 Zeocriton strictum (Desf.) P.Beauv.
-Liste des sous-espèces et variétés
-Selon Tropicos                                           (11 mai 2017)[4] (Attention liste brute contenant possiblement des synonymes) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hordeum_bulbosum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hordeum_bulbosum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (11 mai 2017) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Hordeum bulbosum subsp. bulbosum
 sous-espèce Hordeum bulbosum subsp. nodosum (L.) B.R. Baum
 variété Hordeum bulbosum var. bourgaei Boiss.</t>
